--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_SwapsFromBasis.xlsx
@@ -17,9 +17,6 @@
     <sheet name="6M (2)" sheetId="22" r:id="rId8"/>
     <sheet name="1Y (2)" sheetId="23" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -58,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="87">
   <si>
     <t>Currency</t>
   </si>
@@ -317,6 +314,9 @@
   <si>
     <t>UnitedKingdom::Exchange</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +330,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -832,22 +832,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1142,7 +1126,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="13" customWidth="1"/>
@@ -1153,13 +1137,13 @@
     <col min="7" max="16384" width="8" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="61" t="s">
         <v>46</v>
@@ -1168,14 +1152,14 @@
       <c r="D2" s="62"/>
       <c r="E2" s="63"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="23"/>
       <c r="C4" s="33" t="s">
@@ -1184,7 +1168,7 @@
       <c r="D4" s="34"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="23"/>
       <c r="C5" s="33" t="s">
@@ -1195,7 +1179,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="23"/>
       <c r="C6" s="33" t="s">
@@ -1206,7 +1190,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="23"/>
       <c r="C7" s="33" t="s">
@@ -1217,19 +1201,18 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="23"/>
       <c r="C8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="35" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="23"/>
       <c r="C9" s="33" t="s">
@@ -1240,15 +1223,15 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
         <v>58</v>
       </c>
@@ -1259,13 +1242,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="29"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
       <c r="C14" s="37" t="s">
         <v>0</v>
@@ -1278,7 +1261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="37" t="s">
         <v>62</v>
@@ -1288,7 +1271,7 @@
       </c>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="29"/>
       <c r="C16" s="37" t="s">
         <v>63</v>
@@ -1298,7 +1281,7 @@
       </c>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="2:5" ht="12.75">
+    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
       <c r="C17" s="37" t="s">
         <v>64</v>
@@ -1308,7 +1291,7 @@
       </c>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="2:5" ht="12.75">
+    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
       <c r="C18" s="37" t="s">
         <v>1</v>
@@ -1318,7 +1301,7 @@
       </c>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="2:5" ht="12.75">
+    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
       <c r="C19" s="37" t="s">
         <v>52</v>
@@ -1328,7 +1311,7 @@
       </c>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="2:5" ht="12.75">
+    <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="29"/>
       <c r="C20" s="37" t="s">
         <v>82</v>
@@ -1339,7 +1322,7 @@
       </c>
       <c r="E20" s="30"/>
     </row>
-    <row r="21" spans="2:5" ht="12.75">
+    <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="29"/>
       <c r="C21" s="37" t="s">
         <v>83</v>
@@ -1350,7 +1333,7 @@
       </c>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="2:5" ht="13.5" thickBot="1">
+    <row r="22" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -1391,7 +1374,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -1414,7 +1397,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1430,7 +1413,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1456,7 +1439,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -1483,17 +1466,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC1MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1518,7 +1501,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1534,7 +1517,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -1583,7 +1566,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B12" si="5">B6</f>
@@ -1633,7 +1616,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1683,7 +1666,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1733,7 +1716,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1792,7 +1775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1851,7 +1834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1910,7 +1893,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" ref="B13:B42" si="8">B12</f>
@@ -1969,7 +1952,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2028,7 +2011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2081,7 +2064,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2131,7 +2114,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2181,7 +2164,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2231,7 +2214,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2281,7 +2264,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2331,7 +2314,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2381,7 +2364,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2431,7 +2414,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2481,7 +2464,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2531,7 +2514,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2581,7 +2564,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2631,7 +2614,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2681,7 +2664,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2731,7 +2714,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2781,7 +2764,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2831,7 +2814,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2881,7 +2864,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2931,7 +2914,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2981,7 +2964,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3031,7 +3014,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3081,7 +3064,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3131,7 +3114,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3181,7 +3164,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3231,7 +3214,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3281,7 +3264,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3331,7 +3314,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3381,7 +3364,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="8"/>
@@ -3431,7 +3414,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3469,7 +3452,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -3492,7 +3475,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -3508,7 +3491,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3534,7 +3517,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -3561,17 +3544,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC3MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3596,7 +3579,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3612,7 +3595,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -3661,7 +3644,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f>B6</f>
@@ -3711,7 +3694,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f>B7</f>
@@ -3761,7 +3744,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f>B8</f>
@@ -3811,7 +3794,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f>B9</f>
@@ -3870,7 +3853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f>B10</f>
@@ -3929,7 +3912,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" ref="B12:B42" si="6">B11</f>
@@ -3988,7 +3971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4047,7 +4030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4106,7 +4089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4159,7 +4142,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4209,7 +4192,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4259,7 +4242,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4309,7 +4292,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4359,7 +4342,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4409,7 +4392,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4459,7 +4442,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4509,7 +4492,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4559,7 +4542,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4609,7 +4592,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4659,7 +4642,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4709,7 +4692,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4759,7 +4742,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4809,7 +4792,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4859,7 +4842,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4909,7 +4892,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4959,7 +4942,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5009,7 +4992,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5059,7 +5042,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5109,7 +5092,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5159,7 +5142,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5209,7 +5192,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5259,7 +5242,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5309,7 +5292,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5359,7 +5342,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5409,7 +5392,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5459,7 +5442,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="6"/>
@@ -5509,7 +5492,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -5547,7 +5530,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -5570,7 +5553,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5586,7 +5569,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5612,7 +5595,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:28" ht="22.5">
+    <row r="3" spans="1:28" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -5639,17 +5622,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC6MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5674,7 +5657,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5690,7 +5673,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -5738,7 +5721,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B13" si="4">B6</f>
@@ -5784,7 +5767,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5830,7 +5813,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:28" ht="12" thickBot="1">
+    <row r="9" spans="1:28" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5876,7 +5859,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5938,7 +5921,7 @@
         <v>'\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XLS\020_YieldCurveBootstrap\010_Quotes\[USD_020_ForwardSwapQuotes.xlsx]6M'!R4C11</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -5996,7 +5979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6054,7 +6037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6112,7 +6095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="12" thickBot="1">
+    <row r="14" spans="1:28" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" ref="B14:B42" si="9">B13</f>
@@ -6170,7 +6153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6222,7 +6205,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6271,7 +6254,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6320,7 +6303,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6369,7 +6352,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6418,7 +6401,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6467,7 +6450,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6516,7 +6499,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6565,7 +6548,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6614,7 +6597,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6663,7 +6646,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6712,7 +6695,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6761,7 +6744,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6810,7 +6793,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6859,7 +6842,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6908,7 +6891,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="9"/>
@@ -6957,7 +6940,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7006,7 +6989,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7055,7 +7038,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7104,7 +7087,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7153,7 +7136,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7202,7 +7185,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7251,7 +7234,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7300,7 +7283,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7349,7 +7332,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7398,7 +7381,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7447,7 +7430,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7496,7 +7479,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="9"/>
@@ -7545,7 +7528,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7582,7 +7565,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -7605,7 +7588,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7621,7 +7604,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7647,7 +7630,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -7674,17 +7657,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC1YRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7709,7 +7692,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7725,7 +7708,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -7773,7 +7756,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B13" si="2">B6</f>
@@ -7819,7 +7802,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7865,7 +7848,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7911,7 +7894,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7969,7 +7952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8027,7 +8010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8085,7 +8068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8143,7 +8126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" ref="B14:B42" si="7">B13</f>
@@ -8201,7 +8184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8253,7 +8236,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8302,7 +8285,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8351,7 +8334,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8400,7 +8383,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8449,7 +8432,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8498,7 +8481,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8547,7 +8530,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8596,7 +8579,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8645,7 +8628,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8694,7 +8677,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8743,7 +8726,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8792,7 +8775,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8841,7 +8824,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8890,7 +8873,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8939,7 +8922,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="7"/>
@@ -8988,7 +8971,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9037,7 +9020,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9086,7 +9069,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9135,7 +9118,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9184,7 +9167,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9233,7 +9216,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9282,7 +9265,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9331,7 +9314,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9380,7 +9363,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9429,7 +9412,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9478,7 +9461,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9527,7 +9510,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9576,7 +9559,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -9614,7 +9597,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -9637,7 +9620,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -9653,7 +9636,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9679,7 +9662,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -9706,17 +9689,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9741,7 +9724,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9757,7 +9740,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -9806,7 +9789,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="5">B6</f>
@@ -9856,7 +9839,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9906,7 +9889,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9956,7 +9939,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10015,7 +9998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10074,7 +10057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10133,7 +10116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10192,7 +10175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10251,7 +10234,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10304,7 +10287,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10354,7 +10337,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10404,7 +10387,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10454,7 +10437,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10504,7 +10487,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10554,7 +10537,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10604,7 +10587,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10654,7 +10637,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10704,7 +10687,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10754,7 +10737,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10804,7 +10787,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10854,7 +10837,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10904,7 +10887,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10954,7 +10937,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11004,7 +10987,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11054,7 +11037,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11104,7 +11087,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11154,7 +11137,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11204,7 +11187,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11254,7 +11237,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11304,7 +11287,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11354,7 +11337,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11404,7 +11387,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11454,7 +11437,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11504,7 +11487,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11554,7 +11537,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11604,7 +11587,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11654,7 +11637,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -11692,7 +11675,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -11715,7 +11698,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -11731,7 +11714,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -11757,7 +11740,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -11784,17 +11767,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11819,7 +11802,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11835,7 +11818,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -11884,7 +11867,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="5">B6</f>
@@ -11934,7 +11917,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11984,7 +11967,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12034,7 +12017,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12093,7 +12076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12152,7 +12135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12211,7 +12194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12270,7 +12253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12329,7 +12312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12382,7 +12365,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12432,7 +12415,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12482,7 +12465,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12532,7 +12515,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12582,7 +12565,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12632,7 +12615,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12682,7 +12665,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12732,7 +12715,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12782,7 +12765,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12832,7 +12815,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12882,7 +12865,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12932,7 +12915,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12982,7 +12965,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13032,7 +13015,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13082,7 +13065,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13132,7 +13115,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13182,7 +13165,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13232,7 +13215,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13282,7 +13265,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13332,7 +13315,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13382,7 +13365,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13432,7 +13415,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13482,7 +13465,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13532,7 +13515,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13582,7 +13565,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13632,7 +13615,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13682,7 +13665,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="5"/>
@@ -13732,7 +13715,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -13770,7 +13753,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -13793,7 +13776,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -13809,7 +13792,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13835,7 +13818,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -13862,17 +13845,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13897,7 +13880,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13913,7 +13896,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -13961,7 +13944,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -14007,7 +13990,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14053,7 +14036,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14099,7 +14082,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14157,7 +14140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14215,7 +14198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14273,7 +14256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14331,7 +14314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14389,7 +14372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14441,7 +14424,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14490,7 +14473,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14539,7 +14522,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14588,7 +14571,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14637,7 +14620,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14686,7 +14669,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14735,7 +14718,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14784,7 +14767,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14833,7 +14816,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14882,7 +14865,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14931,7 +14914,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14980,7 +14963,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15029,7 +15012,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15078,7 +15061,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15127,7 +15110,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15176,7 +15159,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15225,7 +15208,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15274,7 +15257,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15323,7 +15306,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15372,7 +15355,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15421,7 +15404,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15470,7 +15453,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15519,7 +15502,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15568,7 +15551,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15617,7 +15600,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15666,7 +15649,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15715,7 +15698,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15764,7 +15747,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -15801,7 +15784,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="44" bestFit="1" customWidth="1"/>
@@ -15824,7 +15807,7 @@
     <col min="19" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -15840,7 +15823,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -15866,7 +15849,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="45"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="39" t="s">
         <v>59</v>
@@ -15893,17 +15876,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>USD_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="41" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15928,7 +15911,7 @@
       </c>
       <c r="N4" s="45"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15944,7 +15927,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>60</v>
@@ -15992,7 +15975,7 @@
       </c>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B42" si="4">B6</f>
@@ -16038,7 +16021,7 @@
       </c>
       <c r="N7" s="45"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16084,7 +16067,7 @@
       </c>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickBot="1">
+    <row r="9" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16130,7 +16113,7 @@
       </c>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16188,7 +16171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16246,7 +16229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16304,7 +16287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16362,7 +16345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" thickBot="1">
+    <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16420,7 +16403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16472,7 +16455,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="51"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16521,7 +16504,7 @@
       </c>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16570,7 +16553,7 @@
       </c>
       <c r="N17" s="45"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16619,7 +16602,7 @@
       </c>
       <c r="N18" s="45"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16668,7 +16651,7 @@
       </c>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16717,7 +16700,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16766,7 +16749,7 @@
       </c>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16815,7 +16798,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16864,7 +16847,7 @@
       </c>
       <c r="N23" s="45"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16913,7 +16896,7 @@
       </c>
       <c r="N24" s="45"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -16962,7 +16945,7 @@
       </c>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17011,7 +16994,7 @@
       </c>
       <c r="N26" s="45"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17060,7 +17043,7 @@
       </c>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17109,7 +17092,7 @@
       </c>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17158,7 +17141,7 @@
       </c>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17207,7 +17190,7 @@
       </c>
       <c r="N30" s="45"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17256,7 +17239,7 @@
       </c>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17305,7 +17288,7 @@
       </c>
       <c r="N32" s="45"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17354,7 +17337,7 @@
       </c>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17403,7 +17386,7 @@
       </c>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17452,7 +17435,7 @@
       </c>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17501,7 +17484,7 @@
       </c>
       <c r="N36" s="45"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17550,7 +17533,7 @@
       </c>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17599,7 +17582,7 @@
       </c>
       <c r="N38" s="45"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17648,7 +17631,7 @@
       </c>
       <c r="N39" s="45"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17697,7 +17680,7 @@
       </c>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17746,7 +17729,7 @@
       </c>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="str">
         <f t="shared" si="4"/>
@@ -17795,7 +17778,7 @@
       </c>
       <c r="N42" s="45"/>
     </row>
-    <row r="43" spans="1:14" ht="12" thickBot="1">
+    <row r="43" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_SwapsFromBasis.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="86">
   <si>
     <t>Currency</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>UnitedKingdom::Exchange</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1204,9 @@
       <c r="C8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>86</v>
+      <c r="D8" s="35" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="25"/>
     </row>
@@ -1467,12 +1465,12 @@
         <v>USD_YC1MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -3545,12 +3543,12 @@
         <v>USD_YC3MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -5623,12 +5621,12 @@
         <v>USD_YC6MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -7658,12 +7656,12 @@
         <v>USD_YC1YRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -9690,12 +9688,12 @@
         <v>USD_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -11768,12 +11766,12 @@
         <v>USD_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -13846,12 +13844,12 @@
         <v>USD_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -15877,12 +15875,12 @@
         <v>USD_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
